--- a/data/trans_media/Q17H_M-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q17H_M-Provincia-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,82</t>
+          <t>2,78; 3,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,78</t>
+          <t>2,02; 2,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,77</t>
+          <t>2,67; 3,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,68</t>
+          <t>2,04; 2,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,6</t>
+          <t>2,85; 3,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,61</t>
+          <t>2,11; 2,61</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 3,4</t>
+          <t>2,76; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,14</t>
+          <t>2,56; 3,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,01</t>
+          <t>2,42; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,02</t>
+          <t>2,5; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,98</t>
+          <t>2,43; 2,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,99</t>
+          <t>2,61; 2,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,91</t>
+          <t>2,5; 2,9</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,15</t>
+          <t>3,18; 4,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,61</t>
+          <t>2,83; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,85</t>
+          <t>3,11; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,45</t>
+          <t>2,69; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,79</t>
+          <t>3,04; 3,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,61</t>
+          <t>2,84; 3,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,68</t>
+          <t>3,07; 3,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,58</t>
+          <t>3,05; 3,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,59</t>
+          <t>3,09; 3,6</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 3,77</t>
+          <t>2,93; 3,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,89</t>
+          <t>2,38; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,21</t>
+          <t>2,58; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 2,87</t>
+          <t>2,41; 2,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,09</t>
+          <t>2,45; 3,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,44</t>
+          <t>2,84; 3,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,04</t>
+          <t>2,59; 3,04</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,34</t>
+          <t>2,3; 3,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,15</t>
+          <t>2,22; 3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,36</t>
+          <t>2,34; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,13</t>
+          <t>2,12; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,44</t>
+          <t>2,44; 3,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,13</t>
+          <t>2,4; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,05</t>
+          <t>2,35; 3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,16</t>
+          <t>2,47; 3,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,07</t>
+          <t>2,47; 3,09</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,96</t>
+          <t>2,93; 3,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,66</t>
+          <t>2,82; 3,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,74</t>
+          <t>1,94; 2,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,84</t>
+          <t>2,96; 3,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,35</t>
+          <t>2,43; 3,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,65</t>
+          <t>1,96; 2,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,75</t>
+          <t>3,08; 3,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,36</t>
+          <t>2,73; 3,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,57</t>
+          <t>2,03; 2,58</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,48</t>
+          <t>2,81; 3,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,49</t>
+          <t>2,9; 3,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,37</t>
+          <t>2,74; 3,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,37</t>
+          <t>2,83; 3,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,96</t>
+          <t>2,45; 2,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,38</t>
+          <t>2,81; 3,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,35</t>
+          <t>2,89; 3,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,13</t>
+          <t>2,75; 3,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,29</t>
+          <t>2,87; 3,3</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,94</t>
+          <t>2,38; 2,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,13</t>
+          <t>2,64; 3,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,36</t>
+          <t>2,85; 3,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,19</t>
+          <t>2,68; 3,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,1</t>
+          <t>2,65; 3,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,24</t>
+          <t>2,78; 3,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,97</t>
+          <t>2,59; 2,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,04</t>
+          <t>2,72; 3,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,25</t>
+          <t>2,88; 3,23</t>
         </is>
       </c>
     </row>
@@ -1565,37 +1565,37 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,24</t>
+          <t>2,96; 3,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,05</t>
+          <t>2,82; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,02</t>
+          <t>2,77; 3,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,12</t>
+          <t>2,87; 3,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,93</t>
+          <t>2,7; 2,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,95</t>
+          <t>2,74; 2,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,15</t>
+          <t>2,96; 3,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
